--- a/500all/speech_level/speeches_CHRG-114hhrg96051.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96051.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. A quorum being present, the subcommittee will come to order.    I would now like to recognize myself for an opening statement.    And this is a joint subcommittee hearing between Asia-Pacific and the Western Hemisphere Subcommittees, and so we will allow opening statements from both chairmen as well as ranking members.    In 1793, President George Washington warned a young America that a reputation of weakness could lead us to a loss of America's rank among nations and that if we desired a secure peace it must be known that we are at all times ready for war. Washington also believed a uniform and well-digested plan was vital to meeting these objectives.    While the need for strategic planning to pursue a position of strength and keep the peace finds relevance today, the United States seems to have forgotten Washington's counsel. Broken promises, faded red lines, budget constraints, a lack of support for traditional allies, and an increasing reliance on tactics rather than strategy have communicated U.S. weakness to a watching world.    In 2013, Secretary John Kerry affirmed that the era of the Monroe Doctrine is over, effectively putting other countries, such as China, on notice that the United States would no longer contend their actions in our neighborhood, the Western Hemisphere.    In contrast to Roosevelt's policy of the Good Neighbor in 1933, the U.S. has drifted instead toward benign neglect toward the very countries that have the greatest potential to impact the daily lives of the American people--those in Latin America and the Caribbean. China has taken notice, and China has stepped up into this vacuum of leadership.    Today, China is weaving an intricate web of alliances in the Western Hemisphere through a vast array of diplomatic, economic, and military ties with multiple countries in the region. Although the United States remains the largest trading partner for Latin America--and I want to emphasize this--China is now the region's second-largest trading partner and has free-trade agreements with Chile, Peru, and Costa Rica.    This year, China hosted the first-ever China-CELAC summit in Beijing for Latin American and Caribbean nations. This organization expressly excludes both Canada and the United States.    Since 2005, China has provided over $100 billion in credit to the region. Last year, China announced it would give nearly $35 billion in loans to the region in coming years. And, this year, China promised its investment in the region would hit $250 billion over the next 10 years.    These are not just empty assurances. According to the Inter-American Dialogue, China has provided 16 loans valued at over $56 billion to Venezuela, 10 loans valued at $22 billion to Brazil, 10 loans valued at $19 billion to Argentina, and 12 loans valued at almost $11 billion to Ecuador.    In particular, Chinese banks have effectively provided a lifeline to these governments, whose economic mismanagement and corruption prevent them from accessing Western institutions. In return, China receives oil, in the case of both Venezuela and Ecuador. In addition, China has been buying up land and companies in the region, investing heavily in infrastructure and ports, as well as gobbling up a lot of rare earth minerals.    From 2008 to 2012, the 10 largest Chinese mergers and acquisitions occurred in Brazil and Argentina, and other deals have occurred in Ecuador, Venezuela, and Peru.    Of significant interest are two specific infrastructure projects: First, a proposed Chinese-funded and Chinese-controlled Nicaragua Canal, estimated to cost nearly $7 billion, which would rival the Panama Canal and provide greater access for Chinese ships and potentially submarines to the waters near U.S. shores. Second, a Chinese-funded Twin Ocean railroad project connecting Peru and Brazil would also project greater Chinese influence and presence in Latin America.    On a more troubling front, Brazil has provided the Chinese with access to its satellite tracking facilities, which could allow China to gain a more comprehensive picture of the flight paths of U.S. satellites.    In addition, Chinese security ties to the region continue to deepen, with the Chinese arms sales to Bolivia, Venezuela, Ecuador, and Argentina. Reportedly, China has even expanded its arms sales beyond traditional nation-states through providing military-caliber weapons to non-state actors such as the FARC terrorist organization in Colombia and drug trafficking organizations in Mexico. This activity has only served to increase the number of weapons in the hands of paramilitary forces and transnational criminal networks.    It should be of grave concern to all Americans that the Chinese maintain a military presence in Cuba, specifically Lourdes, Bejucal, and Santiago de Cuba, all of which were former Soviet-era monitoring facilities.    Clearly, China has big plans right here in our own hemisphere. And what are we doing about it?    Traditional thinking about China's engagement in the Western Hemisphere was that it was largely being done to counter diplomatic efforts in Taiwan and the region or as a way of paying for extractives or buying energy commodities to fuel their ever-expanding economy.    Some have complained that China uses the region as a dumping ground for goods, such as steel, textiles, footwear, consumer electronics, and tires, and a visit to the marketplaces of the Caribbean and South America would seem to confirm some of those suspicions.    Chinese companies operating in the region often bring their own workers, which they have no real effect on economic growth or jobs in places where they operate, creating a source of friction between China and the countries in the region.    So, in conclusion, the U.S. cannot continue to simply ignore China's presence in this hemisphere. The U.S. must engage more deeply in a sustained way with countries in the Western Hemisphere. It should serve as a jarring wake-up call that just a few days ago five Chinese Navy ships were spotted off the coast of Alaska.    This hearing will be a comprehensive overview of China's activities in the Western Hemisphere and consider how the U.S. can better balance those actions with more effective engagement in the region. So I look forward to hearing from today's expert witnesses.    And, with that, I will turn to the ranking member, Mr. Sires from New Jersey, for any opening statement he may have. And then I will come to the gentleman from Arizona.    So, Mr. Sires, you are recognized.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman.    Good afternoon. Thank you to our witnesses for being here today.    Today, we are examining China's continuing effort to assert influence in Latin America and in the Caribbean.    Over the past decade, China's engagement with Latin America has grown significantly, both economically and diplomatically. Chinese leaders have made several trips throughout the region, including Argentina, Brazil, Venezuela, Colombia, and Cuba.    Their engagement comes, by the way, with foreign direct investment, loans, and increased economic ties. Specifically, they have pledged $250 billion in investment in the region over the next 10 years. China's interest in the region is a result of their constant search for new markets to procure natural resources such as various oils and minerals and agricultural products to feed their domestic needs. Over the past 12 years, trade between Latin America and China has grown from $17 billion to $262 billion. By many estimates, China is the third-largest source of foreign direct investment in Latin America and the Caribbean.    While this can mean greater investment for an emerging Latin American economy and a boost in trade with the region, there are also pitfalls. Chinese investments come with baggage--with the baggage of dubious funding, environmental disregard, and poor labor and health conditions for workers.    Proposed agreements like the $50 billion, 172-mile canal in Nicaragua risk displacing indigenous communities, destroying ecological preserves, and isn't guaranteed to be completed. Mines and factories run by Chinese companies have reported dangerous working conditions, where laborers are overworked, mistreated, and constantly operating in unsafe environments.    For too many years, the United States has focused on other parts of the world, which has led to neglect our own neighborhood. While many have viewed China's increasing engagement in the region as a positive contributor to the region's economic growth, we must remain vigilant of what the long-term consequences might be and reaffirm our own commitment to the region. If China wants to continue to engage our neighbors, we must insist that they comply with international labor, health, and environmental standards.    I look forward to hearing from our panelists.    And thank you.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. I am a lot of former things, and I am not going to admit to them all today.    But I would like to thank my good friend Chairman Duncan for convening this joint hearing with me today on China's presence and influence in Latin America and the Caribbean, what I believe to be an understudied yet strategically important trend. I am glad we have a distinguished panel here today to help shed light on this very important issue. We are here today to examine the extent of Chinese political, economic, and military influence in the region, as well as how that may affect U.S. strategic interests.    China's bilateral trade with this hemisphere grew from $15 billion in 2001 to $288.9 billion in 2013. These numbers are staggering and indicative of China's dedication to bolstering its presence in the region.    This January, China pledged to invest $250 billion in Latin America over the next 10 years, serving China's strategic interests of securing access to energy, agriculture, and consumer markets and serving developing Latin American countries' needs for infrastructure development and technological innovation.    While China's presence in Latin America and the Caribbean has been largely limited to trade and investment, there is a movement toward greater military relationships. Nuclear cooperation, shared space assets, and arms sales not only provide China with economic and military leverage in the region but also may expand China's ability to mitigate one of our major advantages: Our relative geographic isolation.    China will continue to allege that it has no foreign bases, meaning that their military posture is inherently defensive. But China's non-explicitly military partnerships with countries in strategic geographic locations like Brazil to share space and satellite assets for Earth observation may raise some eyebrows. ``No foreign bases'' does not mean ``no foreign presence,'' and we should be wary of any potential military implications of Chinese presence in our neighborhood.    In lending billions of dollars to service legitimate needs in developing countries in the Western Hemisphere, China has secured not only lucrative contracts but also diplomatic support. In the 1970s and the 1980s, China made similar inroads in economic assistance to Africa, propelled by the mutual benefit of resources for China and development of African nations. Today, Chinese infrastructure has expanded throughout the continent, and its presence there dominates.    China's involvement in Africa has also marked many African nations' turn-away from formally recognizing Taiwan. In the Western Hemisphere, we currently have 12 states out of 22 total that have formal diplomatic relations with Taiwan, including Nicaragua, Paraguay, and Haiti. Consider China's political benefits from stronger relations with Latin America and the Caribbean countries and what that would mean for the recognition of Taiwan. I am wary of whether China leverages its economic and political sway to further isolate Taiwan.    China's growing economic, trade, military, and diplomatic relationships with countries in Latin America and the Caribbean certainly have implications for U.S. foreign engagement in the region. We welcome China's presence in the region and hope that they will yield mutual benefit for all countries involved. However, we hope this does not come at the expense of the rule of law and good governance and further entrenching inequality, corruption, illicit commerce, and violence.    As the United States continues to look eastward toward Asia, a vital part of our strategic economic future, we must not forget the relationship with our closest neighbors. I look forward to the hearing today about China's strategy within the Western Hemisphere and how we can more effectively manage our presence and our strategy and balance our relationship with our neighbors in the region and China.    Thanks a lot, and I yield back my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Chairman Salmon, for your great leadership and work on these issues in both hemispheres. And it is so important to the American people, so I appreciate that.    Before I recognize you, the bio for each of the witnesses was provided beforehand; I am not going to read that.    You have a lighting system in front of you. We are going to try to maintain a 5-minute rule. If you will, when it gets to yellow, just start trying to wrap up. When it gets to red, we are going to allow a little leeway, but we are going to move on.    So I will go ahead and recognize Dr. Ellis first for 5 minutes. And thank you for being here.</t>
   </si>
   <si>
-    <t>Ellis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ellis. Thank you very much, Chairman Duncan, Chairman Salmon, Ranking Member Sires, distinguished committee members. Thank you very much for the opportunity to share my analysis with you today. I will summarize my written remarks for the committee.    Chinese engagement with Latin America, while producing some benefits for some actors in the region, is generating negative consequences, and not only for the region but also for the strategic position of the United States. Moreover, these consequences are evolving but not abating with China's current economic deceleration.    PRC trade with the hemisphere today is 20 times greater than it was in 2001, with China primarily purchasing low-value-added commodities while selling higher-value-added manufactured products and services. China has also loaned more than $119 billion to the region since 2005, with approximately three-quarters going to Argentina and the regimes of ALBA.    The physical presence of Chinese companies in the region has taken off in the last 5 years, particularly in mining and petroleum, construction, manufacturing, telecommunications, logistics, and banking. This presence has given China a greater stake in the internal affairs of the countries in which they operate.    With Taiwan, the PRC has generally honored its 2008 informal agreement not to woo countries, recognizing the others to change their diplomatic position. Yet leaders of countries recognizing Taiwan has regularly expressed interest in establishing relations with the PRC. Thus, if current Taiwan-ROC rapprochement breaks down, I believe that the PRC could rapidly eliminate the remaining basis of ROC diplomatic legitimacy in the hemisphere.    I see the near-term objectives of the PRC in the hemisphere as principally economic, yet no less impactful for the U.S. and the region. Primary products: Food stuffs, markets, and technology.    China's President Xi has clearly engaged the hemisphere more boldly than his predecessors, including important trips in May 2013 and July 2014. The latter included the first China-CELAC summit and, indeed, as Chairman Duncan pointed out, an important Chinese choice to frame its multilateral engagement with the hemisphere around an institution that excludes the United States and Canada.    The current deceleration of the Chinese economy is likely to decrease PRC commodity investments and the value of commodity imports but will also likely expand Chinese efforts to sell its goods and services to the region and to pursue more loan-backed infrastructure projects, increasing tensions in an already-troubled relationship.    I am concerned that the PRC engagement is indirectly undermining democracy and good governance in the region, as loans to populist regimes weaken the accountability of their leaders to citizens and institutions and facilitate corruption.    In addition, PRC military activities in the Western Hemisphere, as acknowledged, are significant and growing. Chinese defense conglomerates, such as Norinco, are selling increasingly capable military goods to an ever-broader array of clients. In addition to the well-known sales to Venezuela, Ecuador, and Bolivia, the Peruvian Army just last month received 27 Chinese artillery vehicles, while Argentina plans to purchase Chinese ocean patrol vessels and armored personnel carriers, among other items.    Chinese military personnel attend courses in Colombia's Tolemaida military base and at Brazil's Jungle Warfare School in Manaus. The PLA has progressed from participation in multilateral forces, such as MINUSTAH in Haiti, to bilateral engagements, including a November 2010 medical exercise with Peru and the December 2011 deployment of its hospital ship, Peace Ark, to the Caribbean. In October 2013, for the first time, Chinese warships conducted combat exercises in the region, including engagements with Chile, Argentina, and Brazil.    My recommendations to the committee respectfully include: Number one, working with our regional partners to strengthen their government institutions for engaging with the PRC so that all get a fair and constructive deal; two, ratifying an effective transpacific partnership open to China in the future is one step in constructing a multilateral rule-of-law-based regime across the Pacific; three, facilitating ties between the Western Hemisphere and Asian partners who share our values, including Japan, South Korea, Australia, and India; four, expanding theater security cooperation to bolster the U.S. position as partner of choice in the region; five, prioritizing a functional inter-American system in which the OAS and not CELAC or UNASUR is the multilateral vehicle to engage China and resolve regional security issues; six, articulating a clearer vision of what the U.S. stands for in the hemisphere and why the U.S. approach best advances broad-based development, prosperity, and human dignity.    Respectfully, the U.S. cannot and should not block China-Latin American engagement, but we must, I feel, work to ensure that it is consistent with our own security, while advancing the wellbeing of those with whom we share this hemisphere.    Thank you very much for your time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Okay. Is it ``Dussel Peters'' or just ``Peters''?</t>
   </si>
   <si>
-    <t>Dussel Peters</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Dussel Peters. ``Dussel Peters.''</t>
   </si>
   <si>
@@ -106,9 +91,6 @@
     <t xml:space="preserve">    Mr. Duncan. Thank you very much for your testimony.    And the Chair will now recognize Ms. Joseph-Harris.    Thank you so much.</t>
   </si>
   <si>
-    <t>Joseph-Harris</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Joseph-Harris. Thank you very much. And a very good evening to you, Chairman Duncan, Chairman Salmon, and Member Sires.    My contribution comes at a very----</t>
   </si>
   <si>
@@ -127,9 +109,6 @@
     <t xml:space="preserve">    Mr. Duncan. I want to thank you.    And now Ms. Myers is recognized for 5 minutes.    Thank you.</t>
   </si>
   <si>
-    <t>Myers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Myers. Thank you, and good afternoon. I would like to thank the committee and subcommittee chairmen and ranking members and other esteemed committee members for the opportunity to be here today. I will be summarizing my written testimony, which I have submitted for the record.    Let me begin by saying that this hearing, ``China's Advance in Latin America and the Caribbean,'' is very appropriately titled. As we have discussed, China's presence in Latin America and other regions has grown at a remarkable rate in just over a decade.    Latin American and Caribbean exports to China have increased 23 percent per year, on average, since 2000, although that has slowed rather considerably in recent years. We have talked a lot about the $119 billion in finance that China has given to Latin America since 2005, and most of that is going to Venezuela, Ecuador, Argentina, and Brazil. There are numerous investors now present in Latin America--small private ones, large SOEs, banks, both commercial and policy banks, and also China's sovereign wealth fund, although China's foreign direct investment in the region is still fairly low.    China's growing presence, as we have mentioned, in Latin America is also apparent in cultural, educational, military, and political spheres, although over the past decade and a half so much of overall engagement has supported the objectives of China's so-called ``going out'' strategy. And these include securing access to raw materials, establishing new markets for Chinese exports, promoting Chinese brands--and there are many, many Chinese brands in Latin America now--and internationalizing Chinese firms.    And much of what we see China doing in the region today can still be viewed as supporting these objectives. In this sense, China's interest in the region has been rather static. But the relationship has also evolved in some very important ways, and I would like to use my remaining time to briefly highlight three examples.    We have, first of all, seen some important changes in the way in which Chinese firms are investing in the region. Especially in the agriculture and energy sectors, there are growing efforts to invest not only in crop cultivation and mining and drilling, for example, but across entire supply chains--in production, processing, logistics, and marketing--this in order to better control supply and pricing and also to compete with other multinationals and also U.S. firms.    Like in Asia, Latin America has also seen growing interest from China in the development of cross-regional transportation infrastructure, such as the proposed Brazil-Peru railway, but there are many, many other examples. These projects are largely intended to facilitate the transport of raw materials to port, especially along the Pacific coast. Pacific maritime routes are often favorable to those that go through the Gulf of Aden or other areas--transport security, in other words.    Second, there is a perceived change or a growing focus on the part of China in region-wide diplomatic initiatives in Latin America and the Caribbean. And we have mentioned already the China-CELAC forum, which was established in 2014 and which excludes the U.S. and Canada. China has also recently announced several new regional credit lines and investment funds. China's central bank announced this month that it will establish a $10 billion fund for investment in Latin American manufacturing or production capacity.    And, finally, we have seen some important changes in Chinese firm operations. Recent case study analysis suggests that Chinese companies have made real advances in community relations and adherence to local, environmental, and labor standards. But complaints about Chinese companies continue to surface, and the environmental standards of China's top lenders to Latin America are still weaker than those of other international financial institutions. There are also indications, troubling indications, that some Latin American governments have intentionally weakened standards and regulations in order to attract Chinese and other investment or to facilitate cross-Pacific trade.    And China's ongoing financial support for certain governments in the region, to include Maduro in Venezuela, is thought to enable continued economic mismanagement and to facilitate corruption and standards erosion.    So I would conclude simply by saying that China is and will continue to be an important economic partner for many countries in the region, even as economic growth slows on both sides of the Pacific. Whether China-Latin America relations are, in fact, a win-win and mutually beneficial, as China indicates, is debatable. Chinese economic engagement has certainly contributed to growth in some countries in the region, and Chinese investment could be helpful for some Latin American industries or sectors. But mutual benefit requires the regions' governments to negotiate effectively and maintain necessary environmental, labor, and other standards. And I think that the U.S. has a real role in potentially facilitating these developments.    Thank you very much.</t>
   </si>
   <si>
@@ -244,9 +223,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much.    When we are discussing China and its influences, this is not just a situation where the United States wants to dominate the world and we want to make sure that people are listening to rock and roll instead of Chinese instruments playing their style of music.    I just note that in China there has been no political reform whatsoever. Although we had a promise that if we increased our economic ties to China, increased our investment, increased our involvement, that there would be a liberalization of their system. And there is no opposition party, opposition press. There are no people who are permitted to openly organize and criticize the government.    China has also, at the same time that it has no political reform, has become ever more aggressive in its many territorial claims, territorial claims which we have ignored for a long time, but now they seem to be reemerging. Plus, you have military action taken by China over dubious claims in the South China Sea.    So as we are discussing the issue of China's influence, it is not just another country versus our country as our influence. It is whether or not this totalitarian power will be expanding its area of influence, but in some ways control.    And let me also note this. Years ago there was--I first noted this when--and the Chinese targets and how they handle it economically--when the Panama Canal, as it exists today, a Chinese company was able to buy--Hutchison Whampoa was able to buy terminals on both sides of the canal, thus putting the Panama Canal in a position of being dominated by this Chinese-owned company, and how that company received that contract after the actual Panamanian Government had been notified, an American company, that they had won the contract, and they were there to accept the contract. In the middle of the conversation, a phone call comes in. And I think it was the Vice President had to leave the office. And when he came back, he said: Oh, there was a mistake made. The contract went to somebody else.    And the question, what I am leading into is, it was always my belief that somebody had been paid off. In the United States, we put our people in jail if they make bribes to foreign leaders. Is there any such rule of thumb for the way the Chinese companies deal with these Third World countries that we are talking about and developing countries?</t>
   </si>
   <si>
@@ -277,9 +253,6 @@
     <t xml:space="preserve">    Mr. Duncan. Great points.    Mr. Yoho.</t>
   </si>
   <si>
-    <t>Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho. Mr. Chairman, I appreciate it.    I appreciate you all being here today.    And it is disheartening to see that we are losing our influence with our closest allies, our closest countries, and that China is kicking our rear end again.    And I wanted to ask you, before I ask any questions, Dr. Dussel Peters, I am glad to hear you say that the TPP really wouldn't help the area. It would be us negotiating a strong trade agreement with all of Latin America. And you would agree with that?</t>
   </si>
   <si>
@@ -322,9 +295,6 @@
     <t xml:space="preserve">    Mr. Duncan. I want to thank the gentleman for staying around. I know you have got other places to be.    We will go to Mr. Smith from New Jersey.</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Chairman Duncan, thank you very much for the hearing, as well as for my good friend Matt Salmon, and, of course, Albio Sires. This is a very important subject, and I thank you for bringing some light and scrutiny to it.    A similar type of Chinese hegemony is actually occurring in Africa as well. I chair the Africa Committee. And I am very concerned, you know, sometimes, what is China's interest in Latin America, we also have to ask what is Latin America's interest in China? Increasingly for despotic regimes in places like Sudan, it is Bashir who greatly cherishes his relationship with Beijing. And, of course, Evo Morales and so many others, the FMLN in El Salvador, increasingly.    My first trip to Latin America was three times during the FMLN wars and saw upfront and close the terrible devastation. But who was providing those funds? It was all coming from the Soviet Union, usually by way of Cuba, and violence was being used for political means.    Now China is stepping into that void with the demise of the Soviet Union, and they are doing it all over the world. The bad governance model, as you know, is being very aggressively promoted.    I was in Bolivia twice in the last couple of years working on behalf of an American who was being held captive in Palmasola prison. Went to the prison. No charges were brought against him. Eighteen months in that hellhole. And Evo Morales and his government, and I while there became even more sensitized to it, just loved Tehran and just loved China because it is a source of legitimacy, for money, and trade.    So my concerns are, you know, we will have Xi Jinping coming to the United States and visiting with President Obama in just a few weeks, very, very shortly. I am doing a hearing before he comes on China's race to the bottom with North Korea on human rights abuses. They have gotten far worse. Name the issue, trafficking, torture, the crackdown on religious belief. And then you see that they are having additional and enhanced influence in the Caribbean, as well as in the rest of Central and South America. A very, very disturbing trend because dictatorships, whether it be in Venezuela or elsewhere, thrive on that kind of cooperation with a dictatorship like China.    So my first question or big question is, what is Latin America's interest? Why are these, these guerilla movements now turned, you know, whether it be FMLN or the FSLN in Nicaragua, finding such a friend in Beijing? Twelve countries in Central and South America and the Caribbean still support the Republic of China on Taiwan. Is there pressure being put on them to sever those ties or downgrade that recognition?    And, again, when it comes to providing arms, from AK-47s to everything else, when it comes to using the Internet to surveil dissidents and people who espouse real democracy, what is China's influence there? Because they have literally written the book on how to find good people, dissidents and others, track them down, and throw them into prison.</t>
   </si>
   <si>
@@ -338,9 +308,6 @@
   </si>
   <si>
     <t>400071</t>
-  </si>
-  <si>
-    <t>Steve Chabot</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you very much, Mr. Chairman.    I will ask probably just one question here unless I have a follow-up. And I will address it to the whole panel to the extent you would like to answer it.    My question is in regards to China's objectives with respect to Taiwan and Tibet. In your opinion, is China strengthening its diplomatic relations with countries in the Western Hemisphere at least partly in an effort to isolate Taiwan and to some degree Tibet or a free Tibet some day? If yes, how successful have they been so far? And specifically what are the benefits that China offers to Latin American countries in exchange for their support in this effort to isolate especially Taiwan, but also to some degree Tibet? Whoever wants to take it first.    Ms. Joseph-Harris.</t>
@@ -790,11 +757,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -814,13 +779,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -842,11 +805,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -866,13 +827,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -894,11 +853,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -918,13 +875,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -946,11 +901,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -970,13 +923,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -998,11 +949,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1022,13 +971,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1050,11 +997,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1074,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1102,11 +1045,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1126,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1154,11 +1093,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1178,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1206,11 +1141,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1230,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1258,11 +1189,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1282,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1310,11 +1237,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1334,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1362,11 +1285,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1386,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1414,11 +1333,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1438,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1466,11 +1381,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1490,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1518,11 +1429,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1542,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1570,11 +1477,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1594,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1622,11 +1525,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1646,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1672,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1698,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1724,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1750,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1776,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1802,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1828,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1854,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1880,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1906,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1934,11 +1813,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1958,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1984,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2010,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2036,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2062,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2088,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2114,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2140,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2168,11 +2029,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2192,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
-      </c>
-      <c r="G56" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2218,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2244,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>75</v>
-      </c>
-      <c r="G58" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2270,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2296,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2322,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2348,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2376,11 +2221,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2400,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2428,11 +2269,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2452,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>87</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2478,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2504,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>87</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2530,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2556,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>87</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2582,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2608,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>87</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2634,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2660,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
         <v>87</v>
-      </c>
-      <c r="H74" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2686,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2712,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>87</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2738,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2764,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>87</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2792,11 +2605,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2816,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>102</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2842,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2868,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>102</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2896,11 +2701,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2920,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>107</v>
-      </c>
-      <c r="G84" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2946,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2972,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>107</v>
-      </c>
-      <c r="G86" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2998,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3024,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
-      </c>
-      <c r="G88" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3050,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3076,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>107</v>
-      </c>
-      <c r="G90" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3102,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3128,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>107</v>
-      </c>
-      <c r="G92" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3156,11 +2941,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3180,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3206,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3232,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3258,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3284,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3310,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3336,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96051.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96051.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duncan. A quorum being present, the subcommittee will come to order.    I would now like to recognize myself for an opening statement.    And this is a joint subcommittee hearing between Asia-Pacific and the Western Hemisphere Subcommittees, and so we will allow opening statements from both chairmen as well as ranking members.    In 1793, President George Washington warned a young America that a reputation of weakness could lead us to a loss of America's rank among nations and that if we desired a secure peace it must be known that we are at all times ready for war. Washington also believed a uniform and well-digested plan was vital to meeting these objectives.    While the need for strategic planning to pursue a position of strength and keep the peace finds relevance today, the United States seems to have forgotten Washington's counsel. Broken promises, faded red lines, budget constraints, a lack of support for traditional allies, and an increasing reliance on tactics rather than strategy have communicated U.S. weakness to a watching world.    In 2013, Secretary John Kerry affirmed that the era of the Monroe Doctrine is over, effectively putting other countries, such as China, on notice that the United States would no longer contend their actions in our neighborhood, the Western Hemisphere.    In contrast to Roosevelt's policy of the Good Neighbor in 1933, the U.S. has drifted instead toward benign neglect toward the very countries that have the greatest potential to impact the daily lives of the American people--those in Latin America and the Caribbean. China has taken notice, and China has stepped up into this vacuum of leadership.    Today, China is weaving an intricate web of alliances in the Western Hemisphere through a vast array of diplomatic, economic, and military ties with multiple countries in the region. Although the United States remains the largest trading partner for Latin America--and I want to emphasize this--China is now the region's second-largest trading partner and has free-trade agreements with Chile, Peru, and Costa Rica.    This year, China hosted the first-ever China-CELAC summit in Beijing for Latin American and Caribbean nations. This organization expressly excludes both Canada and the United States.    Since 2005, China has provided over $100 billion in credit to the region. Last year, China announced it would give nearly $35 billion in loans to the region in coming years. And, this year, China promised its investment in the region would hit $250 billion over the next 10 years.    These are not just empty assurances. According to the Inter-American Dialogue, China has provided 16 loans valued at over $56 billion to Venezuela, 10 loans valued at $22 billion to Brazil, 10 loans valued at $19 billion to Argentina, and 12 loans valued at almost $11 billion to Ecuador.    In particular, Chinese banks have effectively provided a lifeline to these governments, whose economic mismanagement and corruption prevent them from accessing Western institutions. In return, China receives oil, in the case of both Venezuela and Ecuador. In addition, China has been buying up land and companies in the region, investing heavily in infrastructure and ports, as well as gobbling up a lot of rare earth minerals.    From 2008 to 2012, the 10 largest Chinese mergers and acquisitions occurred in Brazil and Argentina, and other deals have occurred in Ecuador, Venezuela, and Peru.    Of significant interest are two specific infrastructure projects: First, a proposed Chinese-funded and Chinese-controlled Nicaragua Canal, estimated to cost nearly $7 billion, which would rival the Panama Canal and provide greater access for Chinese ships and potentially submarines to the waters near U.S. shores. Second, a Chinese-funded Twin Ocean railroad project connecting Peru and Brazil would also project greater Chinese influence and presence in Latin America.    On a more troubling front, Brazil has provided the Chinese with access to its satellite tracking facilities, which could allow China to gain a more comprehensive picture of the flight paths of U.S. satellites.    In addition, Chinese security ties to the region continue to deepen, with the Chinese arms sales to Bolivia, Venezuela, Ecuador, and Argentina. Reportedly, China has even expanded its arms sales beyond traditional nation-states through providing military-caliber weapons to non-state actors such as the FARC terrorist organization in Colombia and drug trafficking organizations in Mexico. This activity has only served to increase the number of weapons in the hands of paramilitary forces and transnational criminal networks.    It should be of grave concern to all Americans that the Chinese maintain a military presence in Cuba, specifically Lourdes, Bejucal, and Santiago de Cuba, all of which were former Soviet-era monitoring facilities.    Clearly, China has big plans right here in our own hemisphere. And what are we doing about it?    Traditional thinking about China's engagement in the Western Hemisphere was that it was largely being done to counter diplomatic efforts in Taiwan and the region or as a way of paying for extractives or buying energy commodities to fuel their ever-expanding economy.    Some have complained that China uses the region as a dumping ground for goods, such as steel, textiles, footwear, consumer electronics, and tires, and a visit to the marketplaces of the Caribbean and South America would seem to confirm some of those suspicions.    Chinese companies operating in the region often bring their own workers, which they have no real effect on economic growth or jobs in places where they operate, creating a source of friction between China and the countries in the region.    So, in conclusion, the U.S. cannot continue to simply ignore China's presence in this hemisphere. The U.S. must engage more deeply in a sustained way with countries in the Western Hemisphere. It should serve as a jarring wake-up call that just a few days ago five Chinese Navy ships were spotted off the coast of Alaska.    This hearing will be a comprehensive overview of China's activities in the Western Hemisphere and consider how the U.S. can better balance those actions with more effective engagement in the region. So I look forward to hearing from today's expert witnesses.    And, with that, I will turn to the ranking member, Mr. Sires from New Jersey, for any opening statement he may have. And then I will come to the gentleman from Arizona.    So, Mr. Sires, you are recognized.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Sires</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman.    Good afternoon. Thank you to our witnesses for being here today.    Today, we are examining China's continuing effort to assert influence in Latin America and in the Caribbean.    Over the past decade, China's engagement with Latin America has grown significantly, both economically and diplomatically. Chinese leaders have made several trips throughout the region, including Argentina, Brazil, Venezuela, Colombia, and Cuba.    Their engagement comes, by the way, with foreign direct investment, loans, and increased economic ties. Specifically, they have pledged $250 billion in investment in the region over the next 10 years. China's interest in the region is a result of their constant search for new markets to procure natural resources such as various oils and minerals and agricultural products to feed their domestic needs. Over the past 12 years, trade between Latin America and China has grown from $17 billion to $262 billion. By many estimates, China is the third-largest source of foreign direct investment in Latin America and the Caribbean.    While this can mean greater investment for an emerging Latin American economy and a boost in trade with the region, there are also pitfalls. Chinese investments come with baggage--with the baggage of dubious funding, environmental disregard, and poor labor and health conditions for workers.    Proposed agreements like the $50 billion, 172-mile canal in Nicaragua risk displacing indigenous communities, destroying ecological preserves, and isn't guaranteed to be completed. Mines and factories run by Chinese companies have reported dangerous working conditions, where laborers are overworked, mistreated, and constantly operating in unsafe environments.    For too many years, the United States has focused on other parts of the world, which has led to neglect our own neighborhood. While many have viewed China's increasing engagement in the region as a positive contributor to the region's economic growth, we must remain vigilant of what the long-term consequences might be and reaffirm our own commitment to the region. If China wants to continue to engage our neighbors, we must insist that they comply with international labor, health, and environmental standards.    I look forward to hearing from our panelists.    And thank you.</t>
   </si>
   <si>
@@ -67,18 +79,30 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. I am a lot of former things, and I am not going to admit to them all today.    But I would like to thank my good friend Chairman Duncan for convening this joint hearing with me today on China's presence and influence in Latin America and the Caribbean, what I believe to be an understudied yet strategically important trend. I am glad we have a distinguished panel here today to help shed light on this very important issue. We are here today to examine the extent of Chinese political, economic, and military influence in the region, as well as how that may affect U.S. strategic interests.    China's bilateral trade with this hemisphere grew from $15 billion in 2001 to $288.9 billion in 2013. These numbers are staggering and indicative of China's dedication to bolstering its presence in the region.    This January, China pledged to invest $250 billion in Latin America over the next 10 years, serving China's strategic interests of securing access to energy, agriculture, and consumer markets and serving developing Latin American countries' needs for infrastructure development and technological innovation.    While China's presence in Latin America and the Caribbean has been largely limited to trade and investment, there is a movement toward greater military relationships. Nuclear cooperation, shared space assets, and arms sales not only provide China with economic and military leverage in the region but also may expand China's ability to mitigate one of our major advantages: Our relative geographic isolation.    China will continue to allege that it has no foreign bases, meaning that their military posture is inherently defensive. But China's non-explicitly military partnerships with countries in strategic geographic locations like Brazil to share space and satellite assets for Earth observation may raise some eyebrows. ``No foreign bases'' does not mean ``no foreign presence,'' and we should be wary of any potential military implications of Chinese presence in our neighborhood.    In lending billions of dollars to service legitimate needs in developing countries in the Western Hemisphere, China has secured not only lucrative contracts but also diplomatic support. In the 1970s and the 1980s, China made similar inroads in economic assistance to Africa, propelled by the mutual benefit of resources for China and development of African nations. Today, Chinese infrastructure has expanded throughout the continent, and its presence there dominates.    China's involvement in Africa has also marked many African nations' turn-away from formally recognizing Taiwan. In the Western Hemisphere, we currently have 12 states out of 22 total that have formal diplomatic relations with Taiwan, including Nicaragua, Paraguay, and Haiti. Consider China's political benefits from stronger relations with Latin America and the Caribbean countries and what that would mean for the recognition of Taiwan. I am wary of whether China leverages its economic and political sway to further isolate Taiwan.    China's growing economic, trade, military, and diplomatic relationships with countries in Latin America and the Caribbean certainly have implications for U.S. foreign engagement in the region. We welcome China's presence in the region and hope that they will yield mutual benefit for all countries involved. However, we hope this does not come at the expense of the rule of law and good governance and further entrenching inequality, corruption, illicit commerce, and violence.    As the United States continues to look eastward toward Asia, a vital part of our strategic economic future, we must not forget the relationship with our closest neighbors. I look forward to the hearing today about China's strategy within the Western Hemisphere and how we can more effectively manage our presence and our strategy and balance our relationship with our neighbors in the region and China.    Thanks a lot, and I yield back my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Chairman Salmon, for your great leadership and work on these issues in both hemispheres. And it is so important to the American people, so I appreciate that.    Before I recognize you, the bio for each of the witnesses was provided beforehand; I am not going to read that.    You have a lighting system in front of you. We are going to try to maintain a 5-minute rule. If you will, when it gets to yellow, just start trying to wrap up. When it gets to red, we are going to allow a little leeway, but we are going to move on.    So I will go ahead and recognize Dr. Ellis first for 5 minutes. And thank you for being here.</t>
   </si>
   <si>
+    <t>Ellis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ellis. Thank you very much, Chairman Duncan, Chairman Salmon, Ranking Member Sires, distinguished committee members. Thank you very much for the opportunity to share my analysis with you today. I will summarize my written remarks for the committee.    Chinese engagement with Latin America, while producing some benefits for some actors in the region, is generating negative consequences, and not only for the region but also for the strategic position of the United States. Moreover, these consequences are evolving but not abating with China's current economic deceleration.    PRC trade with the hemisphere today is 20 times greater than it was in 2001, with China primarily purchasing low-value-added commodities while selling higher-value-added manufactured products and services. China has also loaned more than $119 billion to the region since 2005, with approximately three-quarters going to Argentina and the regimes of ALBA.    The physical presence of Chinese companies in the region has taken off in the last 5 years, particularly in mining and petroleum, construction, manufacturing, telecommunications, logistics, and banking. This presence has given China a greater stake in the internal affairs of the countries in which they operate.    With Taiwan, the PRC has generally honored its 2008 informal agreement not to woo countries, recognizing the others to change their diplomatic position. Yet leaders of countries recognizing Taiwan has regularly expressed interest in establishing relations with the PRC. Thus, if current Taiwan-ROC rapprochement breaks down, I believe that the PRC could rapidly eliminate the remaining basis of ROC diplomatic legitimacy in the hemisphere.    I see the near-term objectives of the PRC in the hemisphere as principally economic, yet no less impactful for the U.S. and the region. Primary products: Food stuffs, markets, and technology.    China's President Xi has clearly engaged the hemisphere more boldly than his predecessors, including important trips in May 2013 and July 2014. The latter included the first China-CELAC summit and, indeed, as Chairman Duncan pointed out, an important Chinese choice to frame its multilateral engagement with the hemisphere around an institution that excludes the United States and Canada.    The current deceleration of the Chinese economy is likely to decrease PRC commodity investments and the value of commodity imports but will also likely expand Chinese efforts to sell its goods and services to the region and to pursue more loan-backed infrastructure projects, increasing tensions in an already-troubled relationship.    I am concerned that the PRC engagement is indirectly undermining democracy and good governance in the region, as loans to populist regimes weaken the accountability of their leaders to citizens and institutions and facilitate corruption.    In addition, PRC military activities in the Western Hemisphere, as acknowledged, are significant and growing. Chinese defense conglomerates, such as Norinco, are selling increasingly capable military goods to an ever-broader array of clients. In addition to the well-known sales to Venezuela, Ecuador, and Bolivia, the Peruvian Army just last month received 27 Chinese artillery vehicles, while Argentina plans to purchase Chinese ocean patrol vessels and armored personnel carriers, among other items.    Chinese military personnel attend courses in Colombia's Tolemaida military base and at Brazil's Jungle Warfare School in Manaus. The PLA has progressed from participation in multilateral forces, such as MINUSTAH in Haiti, to bilateral engagements, including a November 2010 medical exercise with Peru and the December 2011 deployment of its hospital ship, Peace Ark, to the Caribbean. In October 2013, for the first time, Chinese warships conducted combat exercises in the region, including engagements with Chile, Argentina, and Brazil.    My recommendations to the committee respectfully include: Number one, working with our regional partners to strengthen their government institutions for engaging with the PRC so that all get a fair and constructive deal; two, ratifying an effective transpacific partnership open to China in the future is one step in constructing a multilateral rule-of-law-based regime across the Pacific; three, facilitating ties between the Western Hemisphere and Asian partners who share our values, including Japan, South Korea, Australia, and India; four, expanding theater security cooperation to bolster the U.S. position as partner of choice in the region; five, prioritizing a functional inter-American system in which the OAS and not CELAC or UNASUR is the multilateral vehicle to engage China and resolve regional security issues; six, articulating a clearer vision of what the U.S. stands for in the hemisphere and why the U.S. approach best advances broad-based development, prosperity, and human dignity.    Respectfully, the U.S. cannot and should not block China-Latin American engagement, but we must, I feel, work to ensure that it is consistent with our own security, while advancing the wellbeing of those with whom we share this hemisphere.    Thank you very much for your time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Okay. Is it ``Dussel Peters'' or just ``Peters''?</t>
   </si>
   <si>
+    <t>Dussel Peters</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Dussel Peters. ``Dussel Peters.''</t>
   </si>
   <si>
@@ -91,6 +115,9 @@
     <t xml:space="preserve">    Mr. Duncan. Thank you very much for your testimony.    And the Chair will now recognize Ms. Joseph-Harris.    Thank you so much.</t>
   </si>
   <si>
+    <t>Joseph-Harris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Joseph-Harris. Thank you very much. And a very good evening to you, Chairman Duncan, Chairman Salmon, and Member Sires.    My contribution comes at a very----</t>
   </si>
   <si>
@@ -109,6 +136,9 @@
     <t xml:space="preserve">    Mr. Duncan. I want to thank you.    And now Ms. Myers is recognized for 5 minutes.    Thank you.</t>
   </si>
   <si>
+    <t>Myers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Myers. Thank you, and good afternoon. I would like to thank the committee and subcommittee chairmen and ranking members and other esteemed committee members for the opportunity to be here today. I will be summarizing my written testimony, which I have submitted for the record.    Let me begin by saying that this hearing, ``China's Advance in Latin America and the Caribbean,'' is very appropriately titled. As we have discussed, China's presence in Latin America and other regions has grown at a remarkable rate in just over a decade.    Latin American and Caribbean exports to China have increased 23 percent per year, on average, since 2000, although that has slowed rather considerably in recent years. We have talked a lot about the $119 billion in finance that China has given to Latin America since 2005, and most of that is going to Venezuela, Ecuador, Argentina, and Brazil. There are numerous investors now present in Latin America--small private ones, large SOEs, banks, both commercial and policy banks, and also China's sovereign wealth fund, although China's foreign direct investment in the region is still fairly low.    China's growing presence, as we have mentioned, in Latin America is also apparent in cultural, educational, military, and political spheres, although over the past decade and a half so much of overall engagement has supported the objectives of China's so-called ``going out'' strategy. And these include securing access to raw materials, establishing new markets for Chinese exports, promoting Chinese brands--and there are many, many Chinese brands in Latin America now--and internationalizing Chinese firms.    And much of what we see China doing in the region today can still be viewed as supporting these objectives. In this sense, China's interest in the region has been rather static. But the relationship has also evolved in some very important ways, and I would like to use my remaining time to briefly highlight three examples.    We have, first of all, seen some important changes in the way in which Chinese firms are investing in the region. Especially in the agriculture and energy sectors, there are growing efforts to invest not only in crop cultivation and mining and drilling, for example, but across entire supply chains--in production, processing, logistics, and marketing--this in order to better control supply and pricing and also to compete with other multinationals and also U.S. firms.    Like in Asia, Latin America has also seen growing interest from China in the development of cross-regional transportation infrastructure, such as the proposed Brazil-Peru railway, but there are many, many other examples. These projects are largely intended to facilitate the transport of raw materials to port, especially along the Pacific coast. Pacific maritime routes are often favorable to those that go through the Gulf of Aden or other areas--transport security, in other words.    Second, there is a perceived change or a growing focus on the part of China in region-wide diplomatic initiatives in Latin America and the Caribbean. And we have mentioned already the China-CELAC forum, which was established in 2014 and which excludes the U.S. and Canada. China has also recently announced several new regional credit lines and investment funds. China's central bank announced this month that it will establish a $10 billion fund for investment in Latin American manufacturing or production capacity.    And, finally, we have seen some important changes in Chinese firm operations. Recent case study analysis suggests that Chinese companies have made real advances in community relations and adherence to local, environmental, and labor standards. But complaints about Chinese companies continue to surface, and the environmental standards of China's top lenders to Latin America are still weaker than those of other international financial institutions. There are also indications, troubling indications, that some Latin American governments have intentionally weakened standards and regulations in order to attract Chinese and other investment or to facilitate cross-Pacific trade.    And China's ongoing financial support for certain governments in the region, to include Maduro in Venezuela, is thought to enable continued economic mismanagement and to facilitate corruption and standards erosion.    So I would conclude simply by saying that China is and will continue to be an important economic partner for many countries in the region, even as economic growth slows on both sides of the Pacific. Whether China-Latin America relations are, in fact, a win-win and mutually beneficial, as China indicates, is debatable. Chinese economic engagement has certainly contributed to growth in some countries in the region, and Chinese investment could be helpful for some Latin American industries or sectors. But mutual benefit requires the regions' governments to negotiate effectively and maintain necessary environmental, labor, and other standards. And I think that the U.S. has a real role in potentially facilitating these developments.    Thank you very much.</t>
   </si>
   <si>
@@ -223,6 +253,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much.    When we are discussing China and its influences, this is not just a situation where the United States wants to dominate the world and we want to make sure that people are listening to rock and roll instead of Chinese instruments playing their style of music.    I just note that in China there has been no political reform whatsoever. Although we had a promise that if we increased our economic ties to China, increased our investment, increased our involvement, that there would be a liberalization of their system. And there is no opposition party, opposition press. There are no people who are permitted to openly organize and criticize the government.    China has also, at the same time that it has no political reform, has become ever more aggressive in its many territorial claims, territorial claims which we have ignored for a long time, but now they seem to be reemerging. Plus, you have military action taken by China over dubious claims in the South China Sea.    So as we are discussing the issue of China's influence, it is not just another country versus our country as our influence. It is whether or not this totalitarian power will be expanding its area of influence, but in some ways control.    And let me also note this. Years ago there was--I first noted this when--and the Chinese targets and how they handle it economically--when the Panama Canal, as it exists today, a Chinese company was able to buy--Hutchison Whampoa was able to buy terminals on both sides of the canal, thus putting the Panama Canal in a position of being dominated by this Chinese-owned company, and how that company received that contract after the actual Panamanian Government had been notified, an American company, that they had won the contract, and they were there to accept the contract. In the middle of the conversation, a phone call comes in. And I think it was the Vice President had to leave the office. And when he came back, he said: Oh, there was a mistake made. The contract went to somebody else.    And the question, what I am leading into is, it was always my belief that somebody had been paid off. In the United States, we put our people in jail if they make bribes to foreign leaders. Is there any such rule of thumb for the way the Chinese companies deal with these Third World countries that we are talking about and developing countries?</t>
   </si>
   <si>
@@ -253,6 +289,9 @@
     <t xml:space="preserve">    Mr. Duncan. Great points.    Mr. Yoho.</t>
   </si>
   <si>
+    <t>Yoho</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yoho. Mr. Chairman, I appreciate it.    I appreciate you all being here today.    And it is disheartening to see that we are losing our influence with our closest allies, our closest countries, and that China is kicking our rear end again.    And I wanted to ask you, before I ask any questions, Dr. Dussel Peters, I am glad to hear you say that the TPP really wouldn't help the area. It would be us negotiating a strong trade agreement with all of Latin America. And you would agree with that?</t>
   </si>
   <si>
@@ -295,6 +334,9 @@
     <t xml:space="preserve">    Mr. Duncan. I want to thank the gentleman for staying around. I know you have got other places to be.    We will go to Mr. Smith from New Jersey.</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Chairman Duncan, thank you very much for the hearing, as well as for my good friend Matt Salmon, and, of course, Albio Sires. This is a very important subject, and I thank you for bringing some light and scrutiny to it.    A similar type of Chinese hegemony is actually occurring in Africa as well. I chair the Africa Committee. And I am very concerned, you know, sometimes, what is China's interest in Latin America, we also have to ask what is Latin America's interest in China? Increasingly for despotic regimes in places like Sudan, it is Bashir who greatly cherishes his relationship with Beijing. And, of course, Evo Morales and so many others, the FMLN in El Salvador, increasingly.    My first trip to Latin America was three times during the FMLN wars and saw upfront and close the terrible devastation. But who was providing those funds? It was all coming from the Soviet Union, usually by way of Cuba, and violence was being used for political means.    Now China is stepping into that void with the demise of the Soviet Union, and they are doing it all over the world. The bad governance model, as you know, is being very aggressively promoted.    I was in Bolivia twice in the last couple of years working on behalf of an American who was being held captive in Palmasola prison. Went to the prison. No charges were brought against him. Eighteen months in that hellhole. And Evo Morales and his government, and I while there became even more sensitized to it, just loved Tehran and just loved China because it is a source of legitimacy, for money, and trade.    So my concerns are, you know, we will have Xi Jinping coming to the United States and visiting with President Obama in just a few weeks, very, very shortly. I am doing a hearing before he comes on China's race to the bottom with North Korea on human rights abuses. They have gotten far worse. Name the issue, trafficking, torture, the crackdown on religious belief. And then you see that they are having additional and enhanced influence in the Caribbean, as well as in the rest of Central and South America. A very, very disturbing trend because dictatorships, whether it be in Venezuela or elsewhere, thrive on that kind of cooperation with a dictatorship like China.    So my first question or big question is, what is Latin America's interest? Why are these, these guerilla movements now turned, you know, whether it be FMLN or the FSLN in Nicaragua, finding such a friend in Beijing? Twelve countries in Central and South America and the Caribbean still support the Republic of China on Taiwan. Is there pressure being put on them to sever those ties or downgrade that recognition?    And, again, when it comes to providing arms, from AK-47s to everything else, when it comes to using the Internet to surveil dissidents and people who espouse real democracy, what is China's influence there? Because they have literally written the book on how to find good people, dissidents and others, track them down, and throw them into prison.</t>
   </si>
   <si>
@@ -308,6 +350,12 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you very much, Mr. Chairman.    I will ask probably just one question here unless I have a follow-up. And I will address it to the whole panel to the extent you would like to answer it.    My question is in regards to China's objectives with respect to Taiwan and Tibet. In your opinion, is China strengthening its diplomatic relations with countries in the Western Hemisphere at least partly in an effort to isolate Taiwan and to some degree Tibet or a free Tibet some day? If yes, how successful have they been so far? And specifically what are the benefits that China offers to Latin American countries in exchange for their support in this effort to isolate especially Taiwan, but also to some degree Tibet? Whoever wants to take it first.    Ms. Joseph-Harris.</t>
@@ -707,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,7 +763,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,2381 +785,2755 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>91</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>106</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>106</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>97</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G84" t="s">
+        <v>112</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>97</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G86" t="s">
+        <v>112</v>
+      </c>
       <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>97</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G88" t="s">
+        <v>112</v>
+      </c>
       <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>25</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>97</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G90" t="s">
+        <v>112</v>
+      </c>
       <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>40</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>97</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G92" t="s">
+        <v>112</v>
+      </c>
       <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>40</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96051.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96051.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Duncan</t>
   </si>
   <si>
@@ -77,6 +83,9 @@
   </si>
   <si>
     <t>400606</t>
+  </si>
+  <si>
+    <t>Chair</t>
   </si>
   <si>
     <t>Salmon</t>
@@ -755,7 +764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,7 +772,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,2752 +797,2928 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>40</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>36</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>91</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>91</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>91</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>94</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>33</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>36</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>33</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>36</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>94</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>40</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>94</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s">
-        <v>106</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>109</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>106</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G84" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>33</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>36</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G86" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I86" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G88" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>25</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G90" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>40</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>43</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G92" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>33</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>36</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>28</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>31</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>40</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>43</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>130</v>
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
